--- a/nop-batch/nop-batch-gen/src/main/resources/_vfs/nop/batch/imp/template.batch-gen.xlsx
+++ b/nop-batch/nop-batch-gen/src/main/resources/_vfs/nop/batch/imp/template.batch-gen.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-batch\nop-batch-gen\src\main\resources\_vfs\nop\batch\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CC5705-BD54-485A-802E-5B28CFF3758D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE017A02-BD30-4E94-B090-C9BFE00CB776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="生成模型" sheetId="21" r:id="rId1"/>
+    <sheet name="Case_AA1" sheetId="25" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +65,103 @@
   </si>
   <si>
     <t>权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A类账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  channelId: "A",
+  cardType: "A1",
+  cycleDay: 14,
+  custormer: {
+    familyName: "AUTO_TEST_1",
+    firstName: "A",
+    gender: 1,
+    idCard: "@uuid:16",
+  },
+  productId: 123
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  creditLimit: {
+    cachLimit: 200,
+    installmentLimit: 10000
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B类账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  creditLimit: {
+    cachLimit: 1200,
+    installmentLimit: 20000
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case_AA1,Case_AA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建30%的A类账户和70%的B类账户。
+A类账户再细分为两种A1和A2, B类账户也存在细分情况。
+继承父模板：表示将当前用例的数据模板和父用例的模板深度合并作为实际使用数据。
+模板：模板中可以使用前缀引导语法来动态生成属性
+输出变量：将当前环境中的变量输出到上下文环境中成为给定变量，后续生成用例时可以使用这些变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case_AA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  productId: 345
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  productId:456
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,6 +332,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,21 +671,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="6" width="12.88671875" customWidth="1"/>
+    <col min="3" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" customWidth="1"/>
     <col min="8" max="8" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="22.77734375" customWidth="1"/>
     <col min="12" max="12" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -572,7 +696,9 @@
         <v>1</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
+      <c r="C1" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -617,20 +743,22 @@
       <c r="K3" s="16"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="175.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
+      <c r="C4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -680,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>5</v>
@@ -691,53 +819,69 @@
         <v>8</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="3">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="G8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="3">
+        <v>70</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="4"/>
+      <c r="G9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>3</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="7"/>
       <c r="H10" s="9"/>
       <c r="I10" s="8"/>
@@ -746,57 +890,47 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:12" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="J1:K1"/>
@@ -808,8 +942,292 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="G10:I10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93E926E-41D8-4C22-8F7C-C293D6791D2D}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="22.77734375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:12" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
